--- a/similarities/split_global/harmonic_similarity_timestamps_340.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_340.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,702 +484,734 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_124</t>
+          <t>schubert-winterreise_68</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'A#:min/C#']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min']]</t>
+          <t>['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:26.360000', '0:00:34.360000')]</t>
+          <t>('0:00:33', '0:00:48.220000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:07.700000', '0:00:19.980000')]</t>
+          <t>('0:01:57.680000', '0:01:59.480000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=26.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=33.0</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=7.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=117.68</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>schubert-winterreise_160</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>schubert-winterreise_21</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:00.465952', '0:00:05.272756')]</t>
+          <t>('0:00:09.400000', '0:00:20.180000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:02.200000', '0:01:04.400000')]</t>
+          <t>('0:00:02.020000', '0:00:08.580000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-140#t=0.465952']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=9.4</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=2.02</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>isophonics_269</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>schubert-winterreise_116</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>['A:min', 'E', 'A:min', 'E', 'A:min', 'E', 'A:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:08.460000', '0:00:13.460000')]</t>
+          <t>('0:00:38.841000', '0:00:47.891000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:37.960000', '0:00:44.800000')]</t>
+          <t>('0:00:28.640000', '0:01:07.100000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=8.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=38.841</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-58#t=37.96']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=28.64</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_61</t>
+          <t>isophonics_5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>isophonics_236</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['B', 'E', 'A']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['A:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:24.387324', '0:00:27.452358')]</t>
+          <t>('0:00:08.291354', '0:00:12.447726')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:41.320000', '0:00:48.940000')]</t>
+          <t>('0:01:00.898000', '0:01:07.056000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=24.387324']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-5#t=8.291354</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-43#t=41.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=60.898</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
+          <t>jaah_46</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_151</t>
+          <t>isophonics_44</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A', 'D/5']]</t>
+          <t>['Eb:7', 'Bb:7', 'Eb:7', 'Bb:7']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
+          <t>['F:7', 'C:7', 'F:7', 'C:7']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:00.939000', '0:00:04.875000')]</t>
+          <t>('0:00:02.760000', '0:00:15.470000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:57.540000', '0:02:02.700000')]</t>
+          <t>('0:00:21.821519', '0:00:37.100249')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=0.939']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-46#t=2.76</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-44#t=21.821519</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>schubert-winterreise_208</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Eb:7'], ['Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['C:7', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7'], ['G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['G#:7/D#', 'C#/F', 'G#:7', 'C#']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:22.770000', '0:00:31.750000'), ('0:00:55.230000', '0:01:05.420000')]</t>
+          <t>('0:01:45.840000', '0:02:00.500000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:01.460000', '0:00:10.460000'), ('0:00:08.600000', '0:00:11.260000')]</t>
+          <t>('0:00:44.060000', '0:00:47.700000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=22.77', 'https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=55.23']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=105.84</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=1.46', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=8.6']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=44.06</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>isophonics_252</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
+          <t>isophonics_255</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj'], ['A:min', 'E:7', 'A:min']]</t>
+          <t>['G', 'C:min', 'F:min/5', 'C:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj/A#'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['A', 'D:min', 'G:min/5', 'D:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:50.780000', '0:01:59.340000'), ('0:00:22.060000', '0:00:32.500000')]</t>
+          <t>('0:00:11.285000', '0:00:22.981000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:20.160000', '0:01:26.120000'), ('0:01:49.520000', '0:01:54.200000')]</t>
+          <t>('0:00:26.035941', '0:00:31.109501')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-22#t=110.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-22#t=22.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=11.285</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=80.16', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=109.52']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-255#t=26.035941</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>jaah_7</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj'], ['D:7', 'G:maj', 'G:maj/B']]</t>
+          <t>['F:7', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['C', 'G/3', 'C'], ['G:7', 'C', 'C/b7']]</t>
+          <t>['E:7/G#', 'A:7/G', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:44.820000', '0:00:47.280000'), ('0:00:19.360000', '0:00:21.740000')]</t>
+          <t>('0:00:27.250000', '0:00:30.810000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:41.655000', '0:00:46.220000'), ('0:00:34.041000', '0:00:38.588000')]</t>
+          <t>('0:00:54.260000', '0:01:01.020000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=44.82', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=19.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-7#t=27.25</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=41.655', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=34.041']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=54.26</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>schubert-winterreise_75</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_13</t>
+          <t>schubert-winterreise_146</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['C:7', 'F:min', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj']]</t>
+          <t>['F#:7/B', 'B:min', 'E:min/B']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:25.720000', '0:00:45.260000')]</t>
+          <t>('0:00:24.420000', '0:00:32.620000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:00.320000', '0:00:10.960000')]</t>
+          <t>('0:00:24.640000', '0:00:33')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=25.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=24.42</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=0.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=24.64</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_98</t>
+          <t>isophonics_6</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
+          <t>isophonics_43</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D:7', 'A', 'G']]</t>
+          <t>['D', 'G/5', 'D', 'G/5']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['E:7', 'B', 'A']]</t>
+          <t>['E', 'A', 'E', 'A']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:25.700952', '0:00:35.940952')]</t>
+          <t>('0:00:20.432000', '0:00:24.332000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:36.665000', '0:01:43.317000')]</t>
+          <t>('0:00:03.884104', '0:00:26.140430')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-98#t=25.700952']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=20.432</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=96.665']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-43#t=3.884104</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
+          <t>isophonics_69</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>schubert-winterreise_73</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['F', 'F:min', 'C']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb:min', 'F']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:38.588000', '0:00:43.202000')]</t>
+          <t>('0:00:22.125076', '0:00:36.625937')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:31.310000', '0:00:34.950000')]</t>
+          <t>('0:01:05.200000', '0:01:07.500000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=38.588']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-69#t=22.125076</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=31.31']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=65.2</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_92</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>['D#:min', 'A#:maj', 'D#:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:00.360000', '0:00:02.440000')]</t>
+          <t>('0:00:13.120000', '0:00:19.960000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:04.160000', '0:00:08.800000')]</t>
+          <t>('0:00:00.780000', '0:00:05.980000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=0.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=13.12</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=4.16']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=0.78</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>schubert-winterreise_0</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_211</t>
+          <t>schubert-winterreise_80</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#']]</t>
+          <t>['B:min/F#', 'F#:7', 'B:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:39.900000', '0:00:43.620000')]</t>
+          <t>('0:01:14.100000', '0:01:20.040000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:34.640000', '0:00:41.660000')]</t>
+          <t>('0:02:10.840000', '0:02:15.980000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=39.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=74.1</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=34.64']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=130.84</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_70</t>
+          <t>schubert-winterreise_100</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_226</t>
+          <t>schubert-winterreise_158</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C', 'D:min', 'G', 'C']]</t>
+          <t>['E:7/A', 'E:(3,5,b7,b9)/A', 'A:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['E', 'F#:min', 'B', 'E']]</t>
+          <t>['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:16.779000', '0:01:25.176000')]</t>
+          <t>('0:00:05.080000', '0:00:23.560000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:43.834036', '0:00:58.300068')]</t>
+          <t>('0:02:31.760000', '0:02:34.920000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-70#t=76.779']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-100#t=5.08</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-226#t=43.834036']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=151.76</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>schubert-winterreise_150</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>schubert-winterreise_92</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj'], ['F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:41.080000', '0:00:43.260000'), ('0:00:16.800000', '0:00:19.040000')]</t>
+          <t>('0:00:01.560000', '0:00:06.900000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:00.340000', '0:00:17.940000'), ('0:00:59.500000', '0:01:08.120000')]</t>
+          <t>('0:00:10.780000', '0:00:16.280000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=41.08', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=16.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=1.56</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=0.34', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=59.5']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=10.78</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
